--- a/carry_license/final_license.xlsx
+++ b/carry_license/final_license.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernst\OneDrive\Desktop\Github\CS4103-carry-license\carry_license\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\CS4103-carry-license-main\CS4103-carry-license-main\carry_license\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9833B93C-530D-43C2-9C06-C347F0A677C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96B4B53-4113-4AD5-9E60-43C8C514B03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="3696" windowWidth="19116" windowHeight="21564" xr2:uid="{957A4B34-9BEC-495D-9357-8764EF126F4B}"/>
+    <workbookView xWindow="300" yWindow="0" windowWidth="15690" windowHeight="20880" xr2:uid="{957A4B34-9BEC-495D-9357-8764EF126F4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="32">
   <si>
     <t xml:space="preserve">valid for </t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>BV2(17)</t>
+  </si>
+  <si>
+    <t>NO MILITARY</t>
   </si>
 </sst>
 </file>
@@ -315,19 +318,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B53CEF62-E626-4AE6-9B8C-A343E83C89B8}" name="Table1" displayName="Table1" ref="A1:K65" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K65" xr:uid="{B53CEF62-E626-4AE6-9B8C-A343E83C89B8}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="15,"/>
-        <filter val="20,"/>
-        <filter val="30,"/>
-        <filter val="90,"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K65" xr:uid="{B53CEF62-E626-4AE6-9B8C-A343E83C89B8}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{962214B3-471A-4109-9B62-DA7B3E92E150}" name="age &lt; 18" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{F79A7A44-EF8E-459D-BA04-A20359276D47}" name="age &lt; 21" dataDxfId="9"/>
@@ -644,23 +635,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DDC7B0-6833-40F1-BA2F-5AF19444968A}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="11.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1796875" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -695,7 +687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,7 +719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,9 +747,12 @@
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,9 +780,12 @@
       <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,9 +813,12 @@
       <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -845,9 +846,12 @@
       <c r="I6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -875,9 +879,12 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -905,9 +912,12 @@
       <c r="I8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -939,7 +949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -963,7 +973,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -987,7 +997,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1011,7 +1021,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1035,7 +1045,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1059,7 +1069,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1083,7 +1093,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1117,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1131,7 +1141,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -1155,7 +1165,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1179,7 +1189,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1203,7 +1213,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1227,7 +1237,7 @@
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1261,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1285,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1299,7 +1309,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1333,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -1347,7 +1357,7 @@
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1371,7 +1381,7 @@
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1405,7 @@
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +1429,7 @@
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1443,7 +1453,7 @@
       </c>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -1467,7 +1477,7 @@
       </c>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1491,7 +1501,7 @@
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
@@ -1515,7 +1525,7 @@
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1543,9 +1553,12 @@
       <c r="I34" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="J34" s="1">
+        <v>7</v>
+      </c>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1573,9 +1586,12 @@
       <c r="I35" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="J35" s="1">
+        <v>8</v>
+      </c>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -1603,9 +1619,12 @@
       <c r="I36" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J36" s="1">
+        <v>9</v>
+      </c>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1631,11 +1650,14 @@
         <v>21</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="J37" s="1">
+        <v>10</v>
       </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -1663,9 +1685,12 @@
       <c r="I38" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J38" s="1">
+        <v>11</v>
+      </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -1688,14 +1713,17 @@
         <v>24</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J39" s="1">
+        <v>12</v>
+      </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -1723,9 +1751,12 @@
       <c r="I40" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J40" s="1">
+        <v>13</v>
+      </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -1757,7 +1788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1812,7 @@
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -1805,7 +1836,7 @@
       </c>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +1860,7 @@
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +1884,7 @@
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -1877,7 +1908,7 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -1901,7 +1932,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -1925,7 +1956,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -1949,7 +1980,7 @@
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -1977,9 +2008,12 @@
       <c r="I50" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="J50" s="1">
+        <v>14</v>
+      </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2002,14 +2036,17 @@
         <v>14</v>
       </c>
       <c r="H51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>19</v>
+      <c r="J51" s="1">
+        <v>15</v>
       </c>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -2037,9 +2074,12 @@
       <c r="I52" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J52" s="1">
+        <v>16</v>
+      </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -2067,9 +2107,12 @@
       <c r="I53" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J53" s="1">
+        <v>17</v>
+      </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
@@ -2097,9 +2140,12 @@
       <c r="I54" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="J54" s="1">
+        <v>18</v>
+      </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -2122,14 +2168,17 @@
         <v>14</v>
       </c>
       <c r="H55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1">
         <v>19</v>
       </c>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
@@ -2157,9 +2206,12 @@
       <c r="I56" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J56" s="1">
+        <v>20</v>
+      </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -2191,7 +2243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -2219,9 +2271,12 @@
       <c r="I58" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J58" s="1">
+        <v>21</v>
+      </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -2249,9 +2304,12 @@
       <c r="I59" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J59" s="1">
+        <v>22</v>
+      </c>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -2274,14 +2332,17 @@
         <v>15</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J60" s="1">
+        <v>23</v>
+      </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -2304,14 +2365,17 @@
         <v>15</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J61" s="1">
+        <v>24</v>
+      </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -2339,9 +2403,12 @@
       <c r="I62" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J62" s="1">
+        <v>25</v>
+      </c>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -2369,9 +2436,12 @@
       <c r="I63" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J63" s="1">
+        <v>26</v>
+      </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>4</v>
       </c>
@@ -2394,14 +2464,17 @@
         <v>15</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J64" s="1">
+        <v>27</v>
+      </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -2424,7 +2497,7 @@
         <v>15</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>17</v>
@@ -2433,7 +2506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -2444,7 +2517,7 @@
       <c r="I68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -2455,7 +2528,7 @@
       <c r="I69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -2466,7 +2539,7 @@
       <c r="I70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -2477,7 +2550,7 @@
       <c r="I71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -2488,7 +2561,7 @@
       <c r="I72"/>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -2499,7 +2572,7 @@
       <c r="I73"/>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -2510,7 +2583,7 @@
       <c r="I74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -2521,7 +2594,7 @@
       <c r="I75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -2532,7 +2605,7 @@
       <c r="I76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -2543,7 +2616,7 @@
       <c r="I77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -2554,7 +2627,7 @@
       <c r="I78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -2565,7 +2638,7 @@
       <c r="I79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -2576,7 +2649,7 @@
       <c r="I80"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -2587,7 +2660,7 @@
       <c r="I81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -2598,7 +2671,7 @@
       <c r="I82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -2609,7 +2682,7 @@
       <c r="I83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -2620,7 +2693,7 @@
       <c r="I84"/>
       <c r="J84"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -2631,7 +2704,7 @@
       <c r="I85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -2642,7 +2715,7 @@
       <c r="I86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
@@ -2653,7 +2726,7 @@
       <c r="I87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -2664,7 +2737,7 @@
       <c r="I88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
@@ -2675,7 +2748,7 @@
       <c r="I89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -2686,7 +2759,7 @@
       <c r="I90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
@@ -2697,7 +2770,7 @@
       <c r="I91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
@@ -2708,7 +2781,7 @@
       <c r="I92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
@@ -2719,7 +2792,7 @@
       <c r="I93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
@@ -2730,7 +2803,7 @@
       <c r="I94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
@@ -2741,7 +2814,7 @@
       <c r="I95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
@@ -2752,7 +2825,7 @@
       <c r="I96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>

--- a/carry_license/final_license.xlsx
+++ b/carry_license/final_license.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\CS4103-carry-license-main\CS4103-carry-license-main\carry_license\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernst\OneDrive\Desktop\Github\CS4103-carry-license\carry_license\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96B4B53-4113-4AD5-9E60-43C8C514B03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EA71CA-C075-4D05-A12C-A70D84E7279E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="15690" windowHeight="20880" xr2:uid="{957A4B34-9BEC-495D-9357-8764EF126F4B}"/>
+    <workbookView xWindow="6960" yWindow="3636" windowWidth="14820" windowHeight="21564" xr2:uid="{957A4B34-9BEC-495D-9357-8764EF126F4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -636,23 +636,23 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.21875" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -687,7 +687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -719,7 +719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,7 +752,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,7 +785,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -818,7 +818,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -851,7 +851,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -884,7 +884,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -917,7 +917,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -949,7 +949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -997,7 +997,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>14</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>19</v>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>4</v>
       </c>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -2517,7 +2517,7 @@
       <c r="I68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -2528,7 +2528,7 @@
       <c r="I69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -2539,7 +2539,7 @@
       <c r="I70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -2550,7 +2550,7 @@
       <c r="I71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -2561,7 +2561,7 @@
       <c r="I72"/>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -2572,7 +2572,7 @@
       <c r="I73"/>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -2583,7 +2583,7 @@
       <c r="I74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -2594,7 +2594,7 @@
       <c r="I75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -2605,7 +2605,7 @@
       <c r="I76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -2616,7 +2616,7 @@
       <c r="I77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -2627,7 +2627,7 @@
       <c r="I78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -2638,7 +2638,7 @@
       <c r="I79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -2649,7 +2649,7 @@
       <c r="I80"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -2660,7 +2660,7 @@
       <c r="I81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -2671,7 +2671,7 @@
       <c r="I82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -2682,7 +2682,7 @@
       <c r="I83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -2693,7 +2693,7 @@
       <c r="I84"/>
       <c r="J84"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -2704,7 +2704,7 @@
       <c r="I85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -2715,7 +2715,7 @@
       <c r="I86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
@@ -2726,7 +2726,7 @@
       <c r="I87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -2737,7 +2737,7 @@
       <c r="I88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
@@ -2748,7 +2748,7 @@
       <c r="I89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -2759,7 +2759,7 @@
       <c r="I90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
@@ -2770,7 +2770,7 @@
       <c r="I91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
@@ -2781,7 +2781,7 @@
       <c r="I92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
@@ -2792,7 +2792,7 @@
       <c r="I93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
@@ -2803,7 +2803,7 @@
       <c r="I94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
@@ -2814,7 +2814,7 @@
       <c r="I95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
@@ -2825,7 +2825,7 @@
       <c r="I96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
